--- a/Baud Rate Calcs.xlsx
+++ b/Baud Rate Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempMonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF02B8CD-8E03-4DF0-96EE-BFA64B596FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417D449-9DFE-43C9-85CB-EDD482AD5D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775" xr2:uid="{F3F9E1CF-B71E-41F5-AC33-A2EB0C5B2895}"/>
   </bookViews>
@@ -414,11 +414,12 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
